--- a/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-1,48; 6,32</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 10,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 2,55</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 6,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 3,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 7,55</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>48,46%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>145,15%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>90,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,75%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-29,81; 220,43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31,5; 357,19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-69,0; 109,2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 256,22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,63; 108,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,78; 259,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 4,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 6,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 6,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 2,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 4,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 4,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 2,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,14; 117,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,38; 110,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,57; 111,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,56; 109,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 106,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,54; 42,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 85,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; 76,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; 50,56</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 9,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 2,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 10,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 7,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; 3,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 6,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 7,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 1,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 7,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,21%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,82; 314,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,46; 85,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,97; 326,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,19; 144,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,54; 55,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 128,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,14; 151,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,59; 38,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,89; 155,27</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 4,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 11,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 7,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 5,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 5,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 4,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 4,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 7,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 4,71</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,58%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,04; 114,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,89; 319,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 198,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 177,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,79; 168,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,5; 122,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 106,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,18; 177,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 120,54</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 8,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 5,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 9,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 9,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 6,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 7,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 7,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 4,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 7,43</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,01%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,49%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; 313,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,5; 197,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,06; 338,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,92; 148,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,24; 105,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,73; 138,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 148,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,1; 93,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,17; 148,3</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 5,03</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 4,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 13,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 11,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 7,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,5; 10,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 7,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 4,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,33; 10,85</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,37%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,68%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>207,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,75%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,87%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,67; 143,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,28; 125,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,07; 374,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,06; 642,4</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,64; 382,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,67; 594,17</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,63; 220,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,11; 151,7</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,27; 325,31</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 4,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 7,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 4,58</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 4,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 4,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 0,84</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 3,69</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 5,0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 1,67</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,17%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,37%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,97%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,36; 83,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,76; 134,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,35; 86,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,96; 86,55</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 88,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,19; 17,87</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 63,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,83; 91,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,19; 29,52</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 2,76</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 5,29</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 2,54</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 2,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 6,01</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 2,36</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 1,85</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 4,94</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 2,0</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,97; 60,97</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,8; 110,5</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,85; 52,34</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,41; 54,75</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,03; 135,78</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,88; 58,08</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,98; 38,23</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,41; 97,7</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; 42,77</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 2,9</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 3,88</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 4,42</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,66</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 3,17</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 2,26</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 2,92</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 3,16</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 2,99</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,32%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 56,89</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,48; 77,15</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,43; 86,11</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,89; 66,88</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,87; 56,4</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 40,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,11; 53,55</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,47; 57,97</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,63; 55,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>4,44</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,15</t>
+          <t>1,53; 9,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 6,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 6,45</t>
+          <t>-0,48; 6,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 5,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,55</t>
+          <t>1,82; 7,05</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145,15%</t>
+          <t>125,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>117,75%</t>
+          <t>105,6%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,78; 187,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,5; 357,19</t>
+          <t>19,38; 317,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,37; 315,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 256,22</t>
+          <t>-8,55; 241,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,2; 170,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,78; 259,57</t>
+          <t>27,95; 237,96</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,68</t>
+          <t>-2,11; 4,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 2,79</t>
+          <t>-3,71; 2,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,78</t>
+          <t>-1,72; 2,48</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 111,8</t>
+          <t>-30,02; 105,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 42,78</t>
+          <t>-36,84; 40,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 50,56</t>
+          <t>-21,6; 43,97</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>4,67</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,81</t>
+          <t>3,01; 10,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,8</t>
+          <t>-0,77; 6,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,31</t>
+          <t>1,77; 7,16</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>143,4%</t>
+          <t>137,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>76,33%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,97; 326,03</t>
+          <t>42,93; 313,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 128,67</t>
+          <t>-8,82; 128,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,89; 155,27</t>
+          <t>21,72; 150,65</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,04</t>
+          <t>-2,19; 4,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 7,16</t>
+          <t>-0,07; 7,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,67</t>
+          <t>0,19; 7,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,12</t>
+          <t>-2,69; 3,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,02</t>
+          <t>-0,25; 4,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,71</t>
+          <t>-0,65; 3,94</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>71,58%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>58,88%</t>
+          <t>73,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>35,73%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 114,99</t>
+          <t>-33,33; 128,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 198,12</t>
+          <t>-2,55; 193,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 177,77</t>
+          <t>-1,39; 200,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 122,86</t>
+          <t>-40,38; 88,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 106,08</t>
+          <t>-6,12; 118,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,17; 120,54</t>
+          <t>-11,95; 99,1</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,45</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 9,69</t>
+          <t>0,71; 9,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 7,97</t>
+          <t>-1,65; 8,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,43</t>
+          <t>0,86; 7,49</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>113,76%</t>
+          <t>114,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>65,29%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,06; 338,76</t>
+          <t>5,01; 337,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 138,65</t>
+          <t>-15,73; 139,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,17; 148,3</t>
+          <t>9,71; 149,03</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>7,95</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,8; 13,52</t>
+          <t>4,53; 13,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,41</t>
+          <t>3,52; 10,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,85</t>
+          <t>5,26; 10,73</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>158,37%</t>
+          <t>153,74%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>207,26%</t>
+          <t>207,15%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>177,87%</t>
+          <t>175,82%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>53,07; 374,89</t>
+          <t>50,59; 366,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>58,67; 594,17</t>
+          <t>58,88; 595,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>86,27; 325,31</t>
+          <t>84,75; 320,75</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,7</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,58</t>
+          <t>-1,47; 4,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,84</t>
+          <t>-5,97; 0,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,67</t>
+          <t>-3,47; 1,25</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-24,17%</t>
+          <t>-34,15%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>-10,66%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 86,47</t>
+          <t>-18,46; 78,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 17,87</t>
+          <t>-70,81; 4,32</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 29,52</t>
+          <t>-44,47; 20,22</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,54</t>
+          <t>-4,47; 1,69</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,36</t>
+          <t>-1,83; 2,51</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,0</t>
+          <t>-2,74; 1,63</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>-15,47%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>-5,19%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 52,34</t>
+          <t>-62,3; 29,58</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 58,08</t>
+          <t>-26,62; 63,08</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 42,77</t>
+          <t>-41,47; 33,5</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,42</t>
+          <t>0,71; 3,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,26</t>
+          <t>-0,57; 1,94</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,99</t>
+          <t>0,54; 2,57</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>57,59%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>29,05%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>31,43; 86,11</t>
+          <t>11,93; 75,61</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,06; 40,29</t>
+          <t>-8,57; 34,61</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>21,63; 55,26</t>
+          <t>9,74; 47,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 5,97</t>
+          <t>-1,57; 6,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,32</t>
+          <t>-1,43; 5,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,11</t>
+          <t>1,92; 9,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 6,87</t>
+          <t>-1,24; 6,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,55</t>
+          <t>-4,03; 2,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,07</t>
+          <t>-0,25; 6,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,11</t>
+          <t>-0,14; 5,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,26</t>
+          <t>-1,76; 3,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,05</t>
+          <t>1,83; 6,83</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 187,43</t>
+          <t>-29,0; 224,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 220,43</t>
+          <t>-26,12; 203,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,38; 317,44</t>
+          <t>18,72; 338,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 315,74</t>
+          <t>-27,01; 259,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,0; 109,2</t>
+          <t>-66,66; 129,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 241,77</t>
+          <t>-5,12; 291,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 170,76</t>
+          <t>-3,77; 172,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 108,44</t>
+          <t>-33,21; 104,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,95; 237,96</t>
+          <t>28,27; 226,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,63</t>
+          <t>-1,43; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,4</t>
+          <t>-1,64; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,23</t>
+          <t>-2,14; 3,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,87</t>
+          <t>-0,19; 7,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 6,31</t>
+          <t>-0,82; 5,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,62</t>
+          <t>-3,41; 2,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,71</t>
+          <t>-0,06; 4,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,47</t>
+          <t>-0,43; 4,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,48</t>
+          <t>-1,58; 2,86</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 117,42</t>
+          <t>-21,93; 132,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 110,89</t>
+          <t>-25,06; 106,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 105,48</t>
+          <t>-31,12; 95,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 109,16</t>
+          <t>-3,28; 115,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 106,38</t>
+          <t>-8,64; 94,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 40,02</t>
+          <t>-35,02; 40,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 85,03</t>
+          <t>-0,91; 82,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 76,79</t>
+          <t>-6,0; 82,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 43,97</t>
+          <t>-20,27; 51,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,86</t>
+          <t>0,93; 9,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,37</t>
+          <t>-3,68; 2,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 10,42</t>
+          <t>2,58; 10,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 7,86</t>
+          <t>-1,53; 7,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,05</t>
+          <t>-4,38; 3,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,7</t>
+          <t>-0,62; 6,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,37</t>
+          <t>1,54; 7,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,69</t>
+          <t>-3,12; 1,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,16</t>
+          <t>2,09; 7,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,82; 314,08</t>
+          <t>11,6; 303,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,46; 85,98</t>
+          <t>-58,34; 78,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,93; 313,79</t>
+          <t>37,63; 321,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 144,25</t>
+          <t>-20,8; 129,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,54; 55,08</t>
+          <t>-50,02; 56,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 128,42</t>
+          <t>-7,74; 130,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,14; 151,82</t>
+          <t>19,38; 143,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 38,47</t>
+          <t>-42,6; 36,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,72; 150,65</t>
+          <t>26,25; 149,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,38</t>
+          <t>-2,57; 4,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 11,68</t>
+          <t>3,49; 11,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,0</t>
+          <t>-0,08; 7,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,04</t>
+          <t>-0,13; 6,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 5,32</t>
+          <t>-1,22; 5,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,28</t>
+          <t>-2,55; 3,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,64</t>
+          <t>-0,33; 4,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,33</t>
+          <t>2,06; 7,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,94</t>
+          <t>-0,6; 4,1</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 128,29</t>
+          <t>-40,12; 109,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,89; 319,99</t>
+          <t>41,36; 313,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 193,93</t>
+          <t>-4,64; 192,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 200,99</t>
+          <t>-6,99; 192,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 168,72</t>
+          <t>-22,03; 157,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,38; 88,64</t>
+          <t>-37,51; 106,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 118,54</t>
+          <t>-6,83; 119,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,18; 177,99</t>
+          <t>31,36; 188,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 99,1</t>
+          <t>-10,7; 103,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 8,74</t>
+          <t>-0,46; 9,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,69</t>
+          <t>-2,59; 5,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,72</t>
+          <t>1,11; 10,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 9,04</t>
+          <t>-3,18; 9,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 6,03</t>
+          <t>-5,22; 6,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 8,12</t>
+          <t>-2,04; 7,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 7,39</t>
+          <t>-0,16; 7,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,5</t>
+          <t>-3,18; 4,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,49</t>
+          <t>1,22; 7,44</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 313,07</t>
+          <t>-11,51; 326,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 197,22</t>
+          <t>-43,05; 225,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,01; 337,82</t>
+          <t>4,92; 333,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 148,48</t>
+          <t>-28,36; 147,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 105,45</t>
+          <t>-43,23; 103,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 139,38</t>
+          <t>-19,3; 127,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 148,34</t>
+          <t>-3,7; 151,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 93,48</t>
+          <t>-34,89; 80,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,71; 149,03</t>
+          <t>13,19; 145,54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,03</t>
+          <t>-2,8; 5,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,63</t>
+          <t>-2,98; 4,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,19</t>
+          <t>4,6; 12,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,82; 11,69</t>
+          <t>2,93; 11,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,59</t>
+          <t>-0,36; 7,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,46</t>
+          <t>3,41; 10,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,38</t>
+          <t>1,12; 7,01</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,86</t>
+          <t>-0,6; 5,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,73</t>
+          <t>5,13; 10,73</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 143,77</t>
+          <t>-37,88; 149,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-41,28; 125,7</t>
+          <t>-38,85; 144,46</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>50,59; 366,89</t>
+          <t>55,35; 349,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>49,06; 642,4</t>
+          <t>40,55; 542,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 382,07</t>
+          <t>-13,7; 358,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>58,88; 595,22</t>
+          <t>51,93; 490,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,63; 220,35</t>
+          <t>15,53; 218,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 151,7</t>
+          <t>-14,83; 153,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>84,75; 320,75</t>
+          <t>75,26; 339,63</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 4,3</t>
+          <t>-1,31; 4,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,22</t>
+          <t>1,02; 7,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 4,09</t>
+          <t>-1,52; 4,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,58</t>
+          <t>-1,13; 4,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,38</t>
+          <t>-1,56; 4,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 0,21</t>
+          <t>-5,27; 0,36</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,69</t>
+          <t>-0,53; 3,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,0</t>
+          <t>0,77; 5,19</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,25</t>
+          <t>-3,35; 1,21</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 83,44</t>
+          <t>-17,23; 74,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>12,76; 134,97</t>
+          <t>12,25; 134,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 78,72</t>
+          <t>-19,88; 72,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 86,55</t>
+          <t>-15,8; 91,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 88,23</t>
+          <t>-19,42; 87,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-70,81; 4,32</t>
+          <t>-67,42; 3,11</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 63,04</t>
+          <t>-6,47; 65,48</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7,83; 91,95</t>
+          <t>9,15; 91,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 20,22</t>
+          <t>-43,94; 20,15</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,76</t>
+          <t>-1,98; 2,8</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,29</t>
+          <t>0,54; 5,76</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 1,69</t>
+          <t>-4,34; 1,97</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,28</t>
+          <t>-2,66; 2,15</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,01</t>
+          <t>0,65; 5,89</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,51</t>
+          <t>-1,69; 2,47</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,85</t>
+          <t>-1,55; 1,97</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,94</t>
+          <t>1,17; 4,98</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,63</t>
+          <t>-2,79; 1,45</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 60,97</t>
+          <t>-28,93; 61,56</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>6,8; 110,5</t>
+          <t>7,77; 130,13</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-62,3; 29,58</t>
+          <t>-62,67; 35,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 54,75</t>
+          <t>-38,11; 48,23</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>9,03; 135,78</t>
+          <t>6,17; 131,08</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 63,08</t>
+          <t>-24,85; 58,97</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 38,23</t>
+          <t>-23,41; 40,57</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>18,41; 97,7</t>
+          <t>17,63; 101,72</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 33,5</t>
+          <t>-41,85; 26,75</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,9</t>
+          <t>0,58; 2,9</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,88</t>
+          <t>1,6; 3,99</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,9</t>
+          <t>0,81; 3,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,66</t>
+          <t>1,19; 3,71</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,17</t>
+          <t>0,44; 2,96</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,94</t>
+          <t>-0,65; 1,9</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,92</t>
+          <t>1,21; 2,96</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,16</t>
+          <t>1,46; 3,17</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,57</t>
+          <t>0,6; 2,69</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>6,85; 56,89</t>
+          <t>9,13; 56,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>23,48; 77,15</t>
+          <t>24,88; 78,04</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>11,93; 75,61</t>
+          <t>14,5; 75,76</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>17,89; 66,88</t>
+          <t>17,73; 65,63</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>7,87; 56,4</t>
+          <t>6,44; 53,84</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 34,61</t>
+          <t>-10,15; 33,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>19,11; 53,55</t>
+          <t>18,82; 53,44</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>22,47; 57,97</t>
+          <t>22,72; 58,32</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>9,74; 47,39</t>
+          <t>9,74; 48,69</t>
         </is>
       </c>
     </row>
